--- a/CustomExcelCode/myTestExcel.xlsx
+++ b/CustomExcelCode/myTestExcel.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Main Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
